--- a/REsultados.xlsx
+++ b/REsultados.xlsx
@@ -9,11 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Planilha1!$J$3:$J$132</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Planilha1!$K$3:$K$132</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Planilha1!$J$3:$J$132</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,12 +30,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
-    <t>100 primeiros</t>
+    <t>Second 100</t>
   </si>
   <si>
-    <t>Second 100</t>
+    <t>Distribution Summary</t>
+  </si>
+  <si>
+    <t>Distribution:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weibull      </t>
+  </si>
+  <si>
+    <t>Expression:</t>
+  </si>
+  <si>
+    <t>2 + WEIB(8.25, 0.764)</t>
+  </si>
+  <si>
+    <t>Square Error:</t>
+  </si>
+  <si>
+    <t>0.014653</t>
+  </si>
+  <si>
+    <t>Chi Square Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number of intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Degrees of freedom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Test Statistic     </t>
+  </si>
+  <si>
+    <t>= 6.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Corresponding p-value</t>
+  </si>
+  <si>
+    <t>&lt; 0.005</t>
+  </si>
+  <si>
+    <t>Kolmogorov-Smirnov Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Test Statistic</t>
+  </si>
+  <si>
+    <t>= 0.187</t>
+  </si>
+  <si>
+    <t>&lt; 0.01</t>
+  </si>
+  <si>
+    <t>Data Summary</t>
+  </si>
+  <si>
+    <t>Number of Data Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Data Value       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Data Value       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Mean          </t>
+  </si>
+  <si>
+    <t>= 11.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Std Dev       </t>
+  </si>
+  <si>
+    <t>= 17.3</t>
+  </si>
+  <si>
+    <t>Histogram Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histogram Range    </t>
+  </si>
+  <si>
+    <t>= 2 to 130</t>
+  </si>
+  <si>
+    <t>Number of Intervals</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>First 100</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>F100-Gen</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>S100-Gen</t>
+  </si>
+  <si>
+    <t>F100-S100</t>
   </si>
 </sst>
 </file>
@@ -73,9 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,31 +225,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Amostras Iniciais</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -165,115 +257,449 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$1</c:f>
+              <c:f>Planilha1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100 primeiros</c:v>
+                  <c:v>First 100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha1!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5</c:v>
@@ -285,228 +711,228 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>14</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>16</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>19</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>23</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="96">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>76</c:v>
-                </c:pt>
                 <c:pt idx="98">
-                  <c:v>90</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>130</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D85-4D7D-9140-A4BD1E8385A2}"/>
+              <c16:uniqueId val="{00000000-4BAD-4BF6-A639-3C4537A65289}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -515,7 +941,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$B$1</c:f>
+              <c:f>Planilha1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -525,330 +951,649 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$101</c:f>
+              <c:f>Planilha1!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="57">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="65">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>22</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>25</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>37</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>37</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>57</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>118</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D85-4D7D-9140-A4BD1E8385A2}"/>
+              <c16:uniqueId val="{00000001-4BAD-4BF6-A639-3C4537A65289}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -860,17 +1605,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="293758896"/>
-        <c:axId val="293759880"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="293758896"/>
+        <c:axId val="405059976"/>
+        <c:axId val="405049808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="405059976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -879,8 +1638,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -907,15 +1666,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293759880"/>
+        <c:crossAx val="405049808"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="293759880"/>
+        <c:axId val="405049808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -941,8 +1697,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -966,9 +1728,1592 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293758896"/>
+        <c:crossAx val="405059976"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Second 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$Q$2:$Q$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$R$2:$R$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-264A-45DF-9E6B-5DE105C29114}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$Q$2:$Q$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$S$2:$S$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="131"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-264A-45DF-9E6B-5DE105C29114}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309746432"/>
+        <c:axId val="309751352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309746432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309751352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309751352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309746432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1086,8 +3431,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1114,8 +3499,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1195,11 +3580,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1210,11 +3590,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1226,7 +3601,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1246,9 +3621,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1261,10 +3633,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1304,22 +3676,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1424,8 +3797,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1557,19 +3930,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1583,6 +3957,533 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1606,20 +4507,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1629,6 +4530,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1934,833 +4865,3630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="B6">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <f xml:space="preserve"> 2</f>
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f xml:space="preserve"> -1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="S11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <f>PEARSON(B2:B101,D2:D101)</f>
+        <v>-1.9931110583306488E-2</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>13</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <v>15</v>
+      </c>
+      <c r="S14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <v>17</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+      <c r="R19">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="S19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <f xml:space="preserve"> 100</f>
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <v>57</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <f xml:space="preserve"> 2</f>
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <f xml:space="preserve"> 130</f>
+        <v>130</v>
+      </c>
+      <c r="Q22">
+        <v>21</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <v>13</v>
+      </c>
+      <c r="S23">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24">
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>25</v>
+      </c>
+      <c r="R26">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="Q27">
+        <v>26</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <f xml:space="preserve"> 10</f>
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <v>16</v>
+      </c>
+      <c r="S29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>29</v>
+      </c>
+      <c r="R30">
+        <v>17</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="Q33">
+        <v>32</v>
+      </c>
+      <c r="R33">
+        <v>11</v>
+      </c>
+      <c r="S33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="Q34">
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <v>15</v>
+      </c>
+      <c r="S34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31">
+      <c r="Q35">
+        <v>34</v>
+      </c>
+      <c r="R35">
+        <v>12</v>
+      </c>
+      <c r="S35">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="Q36">
+        <v>35</v>
+      </c>
+      <c r="R36">
+        <v>37</v>
+      </c>
+      <c r="S36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33">
+      <c r="Q37">
+        <v>36</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="Q38">
+        <v>37</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>38</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36">
+      <c r="Q40">
+        <v>39</v>
+      </c>
+      <c r="R40">
+        <v>14</v>
+      </c>
+      <c r="S40">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
         <v>6</v>
       </c>
-      <c r="B37">
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="Q41">
+        <v>40</v>
+      </c>
+      <c r="R41">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="S41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="Q42">
+        <v>41</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="Q43">
+        <v>42</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>130</v>
+      </c>
+      <c r="C44">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <v>43</v>
+      </c>
+      <c r="R44">
+        <v>6</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="Q45">
+        <v>44</v>
+      </c>
+      <c r="R45">
+        <v>12</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>45</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="Q47">
+        <v>46</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="Q48">
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="Q49">
+        <v>48</v>
+      </c>
+      <c r="R49">
+        <v>7</v>
+      </c>
+      <c r="S49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="Q50">
+        <v>49</v>
+      </c>
+      <c r="R50">
+        <v>25</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
         <v>6</v>
       </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="Q51">
+        <v>50</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
         <v>6</v>
       </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="Q52">
+        <v>51</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="Q54">
+        <v>53</v>
+      </c>
+      <c r="R54">
+        <v>4</v>
+      </c>
+      <c r="S54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
         <v>6</v>
       </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>54</v>
+      </c>
+      <c r="R55">
         <v>6</v>
       </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>7</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
+      <c r="S55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="C56">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>7</v>
-      </c>
-      <c r="B49">
+      <c r="D56">
+        <v>37</v>
+      </c>
+      <c r="Q56">
+        <v>55</v>
+      </c>
+      <c r="R56">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>8</v>
-      </c>
-      <c r="B53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>8</v>
-      </c>
-      <c r="B56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="Q57">
+        <v>56</v>
+      </c>
+      <c r="R57">
+        <v>7</v>
+      </c>
+      <c r="S57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
         <v>9</v>
       </c>
-      <c r="B58">
+      <c r="Q58">
+        <v>57</v>
+      </c>
+      <c r="R58">
+        <v>6</v>
+      </c>
+      <c r="S58">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>58</v>
+      </c>
+      <c r="R59">
+        <v>37</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="Q60">
+        <v>59</v>
+      </c>
+      <c r="R60">
+        <v>14</v>
+      </c>
+      <c r="S60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="Q61">
+        <v>60</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <v>8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="Q63">
+        <v>62</v>
+      </c>
+      <c r="R63">
+        <v>7</v>
+      </c>
+      <c r="S63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
         <v>9</v>
       </c>
-      <c r="B59">
+      <c r="Q64">
+        <v>63</v>
+      </c>
+      <c r="R64">
+        <v>8</v>
+      </c>
+      <c r="S64">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
         <v>9</v>
       </c>
-      <c r="B60">
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="Q65">
+        <v>64</v>
+      </c>
+      <c r="R65">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="S65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
         <v>9</v>
       </c>
-      <c r="B61">
+      <c r="Q66">
+        <v>65</v>
+      </c>
+      <c r="R66">
+        <v>7</v>
+      </c>
+      <c r="S66">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <v>66</v>
+      </c>
+      <c r="R67">
+        <v>12</v>
+      </c>
+      <c r="S67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="Q68">
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <v>10</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>118</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="Q69">
+        <v>68</v>
+      </c>
+      <c r="R69">
+        <v>118</v>
+      </c>
+      <c r="S69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="Q70">
+        <v>69</v>
+      </c>
+      <c r="R70">
+        <v>8</v>
+      </c>
+      <c r="S70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
+        <v>70</v>
+      </c>
+      <c r="R71">
+        <v>7</v>
+      </c>
+      <c r="S71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>22</v>
+      </c>
+      <c r="Q72">
+        <v>71</v>
+      </c>
+      <c r="R72">
+        <v>6</v>
+      </c>
+      <c r="S72">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <v>9</v>
       </c>
-      <c r="B62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="Q73">
+        <v>72</v>
+      </c>
+      <c r="R73">
+        <v>5</v>
+      </c>
+      <c r="S73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="Q74">
+        <v>73</v>
+      </c>
+      <c r="R74">
+        <v>7</v>
+      </c>
+      <c r="S74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="Q75">
+        <v>74</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="S75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
         <v>9</v>
       </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="Q76">
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>34</v>
+      </c>
+      <c r="Q77">
+        <v>76</v>
+      </c>
+      <c r="R77">
+        <v>5</v>
+      </c>
+      <c r="S77">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
         <v>9</v>
       </c>
-      <c r="B64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>10</v>
-      </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>10</v>
-      </c>
-      <c r="B67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>10</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>10</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>11</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>11</v>
-      </c>
-      <c r="B71">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>11</v>
-      </c>
-      <c r="B72">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>12</v>
-      </c>
-      <c r="B73">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>12</v>
-      </c>
-      <c r="B74">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>12</v>
-      </c>
-      <c r="B75">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>12</v>
-      </c>
-      <c r="B76">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>12</v>
-      </c>
-      <c r="B77">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>12</v>
-      </c>
-      <c r="B78">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>13</v>
+      </c>
+      <c r="Q78">
+        <v>77</v>
+      </c>
+      <c r="R78">
+        <v>22</v>
+      </c>
+      <c r="S78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>40</v>
+      </c>
+      <c r="Q79">
+        <v>78</v>
+      </c>
+      <c r="R79">
+        <v>12</v>
+      </c>
+      <c r="S79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="Q80">
+        <v>79</v>
+      </c>
+      <c r="R80">
+        <v>15</v>
+      </c>
+      <c r="S80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <v>13</v>
       </c>
-      <c r="B80">
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="Q81">
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <v>7</v>
+      </c>
+      <c r="S81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>81</v>
+      </c>
+      <c r="R82">
+        <v>9</v>
+      </c>
+      <c r="S82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="Q83">
+        <v>82</v>
+      </c>
+      <c r="R83">
+        <v>9</v>
+      </c>
+      <c r="S83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="Q84">
+        <v>83</v>
+      </c>
+      <c r="R84">
+        <v>10</v>
+      </c>
+      <c r="S84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
         <v>13</v>
       </c>
-      <c r="B81">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="Q85">
+        <v>84</v>
+      </c>
+      <c r="R85">
         <v>13</v>
       </c>
-      <c r="B82">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="S85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86">
+        <v>28</v>
+      </c>
+      <c r="Q86">
+        <v>85</v>
+      </c>
+      <c r="R86">
+        <v>11</v>
+      </c>
+      <c r="S86">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="Q87">
+        <v>86</v>
+      </c>
+      <c r="R87">
+        <v>10</v>
+      </c>
+      <c r="S87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88">
         <v>13</v>
       </c>
-      <c r="B83">
+      <c r="Q88">
+        <v>87</v>
+      </c>
+      <c r="R88">
+        <v>9</v>
+      </c>
+      <c r="S88">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>14</v>
-      </c>
-      <c r="B84">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>14</v>
-      </c>
-      <c r="B85">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>14</v>
-      </c>
-      <c r="B86">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>15</v>
-      </c>
-      <c r="B87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>16</v>
-      </c>
-      <c r="B88">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>8</v>
+      </c>
+      <c r="Q89">
+        <v>88</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="Q90">
+        <v>89</v>
+      </c>
+      <c r="R90">
+        <v>9</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="Q91">
+        <v>90</v>
+      </c>
+      <c r="R91">
+        <v>4</v>
+      </c>
+      <c r="S91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92">
         <v>17</v>
       </c>
-      <c r="B91">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="D92">
+        <v>22</v>
+      </c>
+      <c r="Q92">
+        <v>91</v>
+      </c>
+      <c r="R92">
         <v>17</v>
       </c>
-      <c r="B92">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="Q93">
+        <v>92</v>
+      </c>
+      <c r="R93">
+        <v>12</v>
+      </c>
+      <c r="S93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <v>9</v>
+      </c>
+      <c r="S94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <v>94</v>
+      </c>
+      <c r="R95">
+        <v>6</v>
+      </c>
+      <c r="S95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="Q96">
+        <v>95</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>25</v>
+      </c>
+      <c r="Q97">
+        <v>96</v>
+      </c>
+      <c r="R97">
+        <v>7</v>
+      </c>
+      <c r="S97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="Q98">
+        <v>97</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
         <v>38</v>
       </c>
-      <c r="B97">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>50</v>
-      </c>
-      <c r="B98">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>76</v>
-      </c>
-      <c r="B99">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="Q99">
+        <v>98</v>
+      </c>
+      <c r="R99">
+        <v>10</v>
+      </c>
+      <c r="S99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="Q100">
+        <v>99</v>
+      </c>
+      <c r="R100">
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>118</v>
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="Q101">
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <v>12</v>
+      </c>
+      <c r="S101">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B101">
-    <sortCondition ref="B101"/>
+  <sortState ref="D2:D101">
+    <sortCondition ref="D2"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <f>PEARSON(A2:A101,C2:C101)</f>
+        <v>0.87220309043997646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <f>PEARSON(B2:B101,C2:C101)</f>
+        <v>0.84043376423542104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <f>PEARSON(A2:A101,B2:B101)</f>
+        <v>0.96825608989056022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>15</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>16</v>
+      </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
+      <c r="C90">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91">
+        <v>15</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>17</v>
+      </c>
+      <c r="B93">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>19</v>
+      </c>
+      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>23</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>27</v>
+      </c>
+      <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>38</v>
+      </c>
+      <c r="B97">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>50</v>
+      </c>
+      <c r="B98">
+        <v>37</v>
+      </c>
+      <c r="C98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>76</v>
+      </c>
+      <c r="B99">
+        <v>37</v>
+      </c>
+      <c r="C99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>90</v>
+      </c>
+      <c r="B100">
+        <v>57</v>
+      </c>
+      <c r="C100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>130</v>
+      </c>
+      <c r="B101">
+        <v>118</v>
+      </c>
+      <c r="C101">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C2:C101">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/REsultados.xlsx
+++ b/REsultados.xlsx
@@ -9,17 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Planilha1!$J$3:$J$132</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Planilha1!$K$3:$K$132</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Planilha1!$J$3:$J$132</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -225,6 +220,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Iterações Calculados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1823,6 +1843,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Calculados x Simulados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3391,6 +3436,922 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100 Primeiros</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>First 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63DE-49E5-A858-E42326179D40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412053384"/>
+        <c:axId val="412046168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412053384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412046168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412046168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412053384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3432,6 +4393,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4503,6 +5504,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4560,6 +6077,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4867,8 +6414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D101"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7344,7 +8891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/REsultados.xlsx
+++ b/REsultados.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lite\Documents\Github\PethFinder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +201,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -245,6 +240,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -253,26 +249,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -647,79 +623,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5</c:v>
@@ -731,226 +707,226 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>76</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="87">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>38</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4BAD-4BF6-A639-3C4537A65289}"/>
             </c:ext>
@@ -1308,310 +1284,310 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="61">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="62">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>118</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="92">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>12</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4BAD-4BF6-A639-3C4537A65289}"/>
             </c:ext>
@@ -1625,11 +1601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405059976"/>
-        <c:axId val="405049808"/>
+        <c:axId val="194839680"/>
+        <c:axId val="194840256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405059976"/>
+        <c:axId val="194839680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,12 +1662,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405049808"/>
+        <c:crossAx val="194840256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405049808"/>
+        <c:axId val="194840256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1724,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405059976"/>
+        <c:crossAx val="194839680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1762,6 +1738,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1829,7 +1806,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1868,6 +1845,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1876,26 +1854,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2255,310 +2213,310 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="61">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="62">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="63">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>118</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="92">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>10</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>12</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-264A-45DF-9E6B-5DE105C29114}"/>
             </c:ext>
@@ -2916,13 +2874,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -2934,112 +2892,112 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>54</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>22</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>5</c:v>
@@ -3048,178 +3006,178 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>25</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="60">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="61">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>22</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>40</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>34</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>40</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>28</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>25</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-264A-45DF-9E6B-5DE105C29114}"/>
             </c:ext>
@@ -3233,11 +3191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309746432"/>
-        <c:axId val="309751352"/>
+        <c:axId val="194844864"/>
+        <c:axId val="194845440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309746432"/>
+        <c:axId val="194844864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,12 +3252,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309751352"/>
+        <c:crossAx val="194845440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309751352"/>
+        <c:axId val="194845440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3356,7 +3314,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309746432"/>
+        <c:crossAx val="194844864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3370,6 +3328,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3437,7 +3396,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3476,6 +3435,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3484,26 +3444,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3863,79 +3803,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5</c:v>
@@ -3947,226 +3887,226 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>76</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="72">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="87">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>38</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63DE-49E5-A858-E42326179D40}"/>
             </c:ext>
@@ -4180,11 +4120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412053384"/>
-        <c:axId val="412046168"/>
+        <c:axId val="204088448"/>
+        <c:axId val="204089024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412053384"/>
+        <c:axId val="204088448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4241,12 +4181,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412046168"/>
+        <c:crossAx val="204089024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412046168"/>
+        <c:axId val="204089024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,7 +4243,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412053384"/>
+        <c:crossAx val="204088448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6404,7 +6344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6414,18 +6354,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -6456,10 +6396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -6472,10 +6412,10 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -6486,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -6495,7 +6435,7 @@
         <v>2</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -6506,10 +6446,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>38</v>
@@ -6524,10 +6464,10 @@
         <v>3</v>
       </c>
       <c r="R4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -6535,10 +6475,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -6553,7 +6493,7 @@
         <v>4</v>
       </c>
       <c r="R5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -6564,10 +6504,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -6582,7 +6522,7 @@
         <v>5</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -6593,10 +6533,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -6605,7 +6545,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S7">
         <v>2</v>
@@ -6616,10 +6556,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>11</v>
@@ -6631,10 +6571,10 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -6642,10 +6582,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -6661,10 +6601,10 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6672,10 +6612,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -6691,10 +6631,10 @@
         <v>9</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -6702,7 +6642,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -6723,7 +6663,7 @@
         <v>3</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -6731,10 +6671,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -6749,10 +6689,10 @@
         <v>11</v>
       </c>
       <c r="R12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -6763,23 +6703,19 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="P13">
-        <f>PEARSON(B2:B101,D2:D101)</f>
-        <v>-1.9931110583306488E-2</v>
-      </c>
       <c r="Q13">
         <v>12</v>
       </c>
       <c r="R13">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -6787,10 +6723,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>17</v>
@@ -6802,10 +6738,10 @@
         <v>13</v>
       </c>
       <c r="R14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -6813,10 +6749,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -6831,10 +6767,10 @@
         <v>14</v>
       </c>
       <c r="R15">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -6842,10 +6778,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -6860,10 +6796,10 @@
         <v>15</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -6874,7 +6810,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -6883,10 +6819,10 @@
         <v>16</v>
       </c>
       <c r="R17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -6894,10 +6830,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -6909,10 +6845,10 @@
         <v>17</v>
       </c>
       <c r="R18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -6920,10 +6856,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -6932,10 +6868,10 @@
         <v>18</v>
       </c>
       <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
         <v>3</v>
-      </c>
-      <c r="S19">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -6943,10 +6879,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -6962,10 +6898,10 @@
         <v>19</v>
       </c>
       <c r="R20">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -6973,10 +6909,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>11</v>
@@ -6992,10 +6928,10 @@
         <v>20</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -7003,10 +6939,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>54</v>
@@ -7022,10 +6958,10 @@
         <v>21</v>
       </c>
       <c r="R22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -7036,7 +6972,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -7051,7 +6987,7 @@
         <v>22</v>
       </c>
       <c r="R23">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S23">
         <v>3</v>
@@ -7062,7 +6998,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -7083,7 +7019,7 @@
         <v>5</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -7091,22 +7027,26 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
+      <c r="P25">
+        <f>PEARSON(B14:B113,D14:D113)</f>
+        <v>-7.5862225005723927E-2</v>
+      </c>
       <c r="Q25">
         <v>24</v>
       </c>
       <c r="R25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -7114,10 +7054,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>11</v>
@@ -7129,10 +7069,10 @@
         <v>25</v>
       </c>
       <c r="R26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -7143,7 +7083,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -7153,10 +7093,10 @@
         <v>26</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -7167,7 +7107,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -7182,7 +7122,7 @@
         <v>27</v>
       </c>
       <c r="R28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S28">
         <v>4</v>
@@ -7196,7 +7136,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>13</v>
@@ -7212,10 +7152,10 @@
         <v>28</v>
       </c>
       <c r="R29">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S29">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -7223,10 +7163,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -7235,10 +7175,10 @@
         <v>29</v>
       </c>
       <c r="R30">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -7246,10 +7186,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -7258,10 +7198,10 @@
         <v>30</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -7272,7 +7212,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -7281,10 +7221,10 @@
         <v>31</v>
       </c>
       <c r="R32">
+        <v>6</v>
+      </c>
+      <c r="S32">
         <v>4</v>
-      </c>
-      <c r="S32">
-        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -7292,10 +7232,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -7304,10 +7244,10 @@
         <v>32</v>
       </c>
       <c r="R33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -7315,10 +7255,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -7327,10 +7267,10 @@
         <v>33</v>
       </c>
       <c r="R34">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="S34">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -7338,10 +7278,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -7350,10 +7290,10 @@
         <v>34</v>
       </c>
       <c r="R35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -7361,10 +7301,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>22</v>
@@ -7373,10 +7313,10 @@
         <v>35</v>
       </c>
       <c r="R36">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="S36">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -7384,10 +7324,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -7396,10 +7336,10 @@
         <v>36</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S37">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -7410,7 +7350,7 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -7419,10 +7359,10 @@
         <v>37</v>
       </c>
       <c r="R38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S38">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -7430,10 +7370,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -7442,10 +7382,10 @@
         <v>38</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -7453,10 +7393,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -7465,10 +7405,10 @@
         <v>39</v>
       </c>
       <c r="R40">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -7476,10 +7416,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -7488,10 +7428,10 @@
         <v>40</v>
       </c>
       <c r="R41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S41">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -7499,10 +7439,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D42">
         <v>20</v>
@@ -7511,10 +7451,10 @@
         <v>41</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S42">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -7522,10 +7462,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D43">
         <v>18</v>
@@ -7534,10 +7474,10 @@
         <v>42</v>
       </c>
       <c r="R43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S43">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -7545,10 +7485,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -7557,7 +7497,7 @@
         <v>43</v>
       </c>
       <c r="R44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -7568,10 +7508,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -7580,7 +7520,7 @@
         <v>44</v>
       </c>
       <c r="R45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S45">
         <v>5</v>
@@ -7591,10 +7531,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -7603,10 +7543,10 @@
         <v>45</v>
       </c>
       <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
         <v>5</v>
-      </c>
-      <c r="S46">
-        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -7614,10 +7554,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D47">
         <v>25</v>
@@ -7626,10 +7566,10 @@
         <v>46</v>
       </c>
       <c r="R47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S47">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -7637,10 +7577,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>13</v>
@@ -7649,10 +7589,10 @@
         <v>47</v>
       </c>
       <c r="R48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S48">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -7660,10 +7600,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -7672,10 +7612,10 @@
         <v>48</v>
       </c>
       <c r="R49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S49">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -7683,10 +7623,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -7695,10 +7635,10 @@
         <v>49</v>
       </c>
       <c r="R50">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -7706,10 +7646,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -7718,7 +7658,7 @@
         <v>50</v>
       </c>
       <c r="R51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S51">
         <v>6</v>
@@ -7729,10 +7669,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52">
         <v>9</v>
@@ -7741,10 +7681,10 @@
         <v>51</v>
       </c>
       <c r="R52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S52">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -7752,10 +7692,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -7764,10 +7704,10 @@
         <v>52</v>
       </c>
       <c r="R53">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -7775,10 +7715,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>14</v>
@@ -7787,10 +7727,10 @@
         <v>53</v>
       </c>
       <c r="R54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S54">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -7798,10 +7738,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -7810,10 +7750,10 @@
         <v>54</v>
       </c>
       <c r="R55">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S55">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -7821,10 +7761,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>37</v>
@@ -7833,10 +7773,10 @@
         <v>55</v>
       </c>
       <c r="R56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S56">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -7847,7 +7787,7 @@
         <v>9</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>14</v>
@@ -7856,10 +7796,10 @@
         <v>56</v>
       </c>
       <c r="R57">
+        <v>9</v>
+      </c>
+      <c r="S57">
         <v>7</v>
-      </c>
-      <c r="S57">
-        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -7867,10 +7807,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -7879,10 +7819,10 @@
         <v>57</v>
       </c>
       <c r="R58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S58">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -7890,10 +7830,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -7902,10 +7842,10 @@
         <v>58</v>
       </c>
       <c r="R59">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -7913,10 +7853,10 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>11</v>
@@ -7925,10 +7865,10 @@
         <v>59</v>
       </c>
       <c r="R60">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S60">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -7936,10 +7876,10 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -7948,10 +7888,10 @@
         <v>60</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S61">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -7959,10 +7899,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -7971,10 +7911,10 @@
         <v>61</v>
       </c>
       <c r="R62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -7982,10 +7922,10 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>10</v>
@@ -7994,10 +7934,10 @@
         <v>62</v>
       </c>
       <c r="R63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S63">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -8005,10 +7945,10 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>9</v>
@@ -8017,7 +7957,7 @@
         <v>63</v>
       </c>
       <c r="R64">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S64">
         <v>9</v>
@@ -8028,10 +7968,10 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -8040,10 +7980,10 @@
         <v>64</v>
       </c>
       <c r="R65">
+        <v>10</v>
+      </c>
+      <c r="S65">
         <v>9</v>
-      </c>
-      <c r="S65">
-        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -8051,10 +7991,10 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>9</v>
@@ -8063,10 +8003,10 @@
         <v>65</v>
       </c>
       <c r="R66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S66">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -8074,10 +8014,10 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -8086,10 +8026,10 @@
         <v>66</v>
       </c>
       <c r="R67">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -8097,7 +8037,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -8112,7 +8052,7 @@
         <v>10</v>
       </c>
       <c r="S68">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -8120,10 +8060,10 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -8132,10 +8072,10 @@
         <v>68</v>
       </c>
       <c r="R69">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -8143,10 +8083,10 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -8155,10 +8095,10 @@
         <v>69</v>
       </c>
       <c r="R70">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S70">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -8166,10 +8106,10 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -8178,10 +8118,10 @@
         <v>70</v>
       </c>
       <c r="R71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S71">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -8189,10 +8129,10 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>22</v>
@@ -8201,10 +8141,10 @@
         <v>71</v>
       </c>
       <c r="R72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S72">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -8212,10 +8152,10 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>11</v>
@@ -8224,7 +8164,7 @@
         <v>72</v>
       </c>
       <c r="R73">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S73">
         <v>11</v>
@@ -8235,10 +8175,10 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>20</v>
@@ -8247,10 +8187,10 @@
         <v>73</v>
       </c>
       <c r="R74">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S74">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -8258,10 +8198,10 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>40</v>
@@ -8270,10 +8210,10 @@
         <v>74</v>
       </c>
       <c r="R75">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S75">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -8281,10 +8221,10 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -8293,10 +8233,10 @@
         <v>75</v>
       </c>
       <c r="R76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S76">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -8304,10 +8244,10 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>34</v>
@@ -8316,10 +8256,10 @@
         <v>76</v>
       </c>
       <c r="R77">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S77">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -8327,10 +8267,10 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C78">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>13</v>
@@ -8339,7 +8279,7 @@
         <v>77</v>
       </c>
       <c r="R78">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="S78">
         <v>13</v>
@@ -8365,7 +8305,7 @@
         <v>12</v>
       </c>
       <c r="S79">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -8373,10 +8313,10 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -8385,10 +8325,10 @@
         <v>79</v>
       </c>
       <c r="R80">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S80">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -8399,7 +8339,7 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>9</v>
@@ -8408,10 +8348,10 @@
         <v>80</v>
       </c>
       <c r="R81">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S81">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -8419,10 +8359,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>7</v>
@@ -8431,10 +8371,10 @@
         <v>81</v>
       </c>
       <c r="R82">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S82">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -8442,10 +8382,10 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>7</v>
@@ -8454,10 +8394,10 @@
         <v>82</v>
       </c>
       <c r="R83">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S83">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -8465,10 +8405,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -8477,10 +8417,10 @@
         <v>83</v>
       </c>
       <c r="R84">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S84">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -8488,7 +8428,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C85">
         <v>13</v>
@@ -8503,7 +8443,7 @@
         <v>13</v>
       </c>
       <c r="S85">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -8511,10 +8451,10 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D86">
         <v>28</v>
@@ -8523,10 +8463,10 @@
         <v>85</v>
       </c>
       <c r="R86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S86">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -8534,10 +8474,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D87">
         <v>7</v>
@@ -8546,10 +8486,10 @@
         <v>86</v>
       </c>
       <c r="R87">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S87">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -8557,10 +8497,10 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>13</v>
@@ -8569,10 +8509,10 @@
         <v>87</v>
       </c>
       <c r="R88">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S88">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -8580,10 +8520,10 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D89">
         <v>8</v>
@@ -8592,10 +8532,10 @@
         <v>88</v>
       </c>
       <c r="R89">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S89">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -8603,10 +8543,10 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -8615,10 +8555,10 @@
         <v>89</v>
       </c>
       <c r="R90">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -8626,10 +8566,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -8638,10 +8578,10 @@
         <v>90</v>
       </c>
       <c r="R91">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -8649,10 +8589,10 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <v>22</v>
@@ -8661,7 +8601,7 @@
         <v>91</v>
       </c>
       <c r="R92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S92">
         <v>22</v>
@@ -8675,7 +8615,7 @@
         <v>17</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>12</v>
@@ -8684,10 +8624,10 @@
         <v>92</v>
       </c>
       <c r="R93">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S93">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -8695,10 +8635,10 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -8707,10 +8647,10 @@
         <v>93</v>
       </c>
       <c r="R94">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S94">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -8718,10 +8658,10 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -8730,10 +8670,10 @@
         <v>94</v>
       </c>
       <c r="R95">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -8741,10 +8681,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -8753,10 +8693,10 @@
         <v>95</v>
       </c>
       <c r="R96">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="S96">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -8764,10 +8704,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D97">
         <v>25</v>
@@ -8776,10 +8716,10 @@
         <v>96</v>
       </c>
       <c r="R97">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S97">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -8787,10 +8727,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -8799,10 +8739,10 @@
         <v>97</v>
       </c>
       <c r="R98">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="S98">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -8810,10 +8750,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D99">
         <v>7</v>
@@ -8822,10 +8762,10 @@
         <v>98</v>
       </c>
       <c r="R99">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="S99">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -8833,10 +8773,10 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -8845,10 +8785,10 @@
         <v>99</v>
       </c>
       <c r="R100">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="S100">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -8856,10 +8796,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -8868,15 +8808,15 @@
         <v>100</v>
       </c>
       <c r="R101">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="S101">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D101">
-    <sortCondition ref="D2"/>
+  <sortState ref="R2:R101">
+    <sortCondition ref="R2"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="F2:G2"/>
